--- a/Docs/sociosExample.xlsx
+++ b/Docs/sociosExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mierdas\github\workspace\harboroughSeasonTickets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4621F6-11AE-42E6-BFFF-B10F1B036530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C92F011-A33F-4C3E-8555-D06D4E350AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>APELLIDOS</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Carlos</t>
   </si>
@@ -76,14 +67,32 @@
     <t>lolagl00@hotmail.com</t>
   </si>
   <si>
-    <t>NUMERO_SOCIO</t>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Juaristi</t>
+  </si>
+  <si>
+    <t>joeljuaristi@hotmail.com</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellidos</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>numero_socio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,6 +108,13 @@
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,18 +140,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -352,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,16 +385,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -383,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -397,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -411,13 +430,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -425,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -439,16 +458,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{AF4EB7E4-FBF1-451B-BFB6-8B445B9E074F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Docs/sociosExample.xlsx
+++ b/Docs/sociosExample.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Carlos Francisco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Juan Miguel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
